--- a/data/trans_orig/P36B17-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B17-Estudios-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>197666</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>178341</v>
+        <v>175892</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>220033</v>
+        <v>219203</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3428195002436251</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.3093023625630169</v>
+        <v>0.305055956324685</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3816101413154758</v>
+        <v>0.3801707003169768</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>677</v>
@@ -762,19 +762,19 @@
         <v>367752</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>346571</v>
+        <v>346907</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>389503</v>
+        <v>391274</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4488931526302594</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4230385849726319</v>
+        <v>0.4234492601301837</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4754433452454883</v>
+        <v>0.4776054681999675</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>957</v>
@@ -783,19 +783,19 @@
         <v>565418</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>534969</v>
+        <v>532922</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>597691</v>
+        <v>594680</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.4050762239454773</v>
+        <v>0.4050762239454774</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3832618405518697</v>
+        <v>0.3817951494089034</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.4281970452905111</v>
+        <v>0.4260400523870448</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>178438</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>156456</v>
+        <v>155337</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>201464</v>
+        <v>200798</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3094716801792486</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2713473125269668</v>
+        <v>0.2694061280014317</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3494066276586646</v>
+        <v>0.3482509966977682</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>389</v>
@@ -833,19 +833,19 @@
         <v>224435</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>204460</v>
+        <v>205673</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>244257</v>
+        <v>241457</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2739544000263278</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.249572823008194</v>
+        <v>0.251053205637692</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2981498421483836</v>
+        <v>0.294732946484095</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>586</v>
@@ -854,19 +854,19 @@
         <v>402873</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>373694</v>
+        <v>372580</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>433292</v>
+        <v>434501</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.2886258862674676</v>
+        <v>0.2886258862674677</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2677216935602907</v>
+        <v>0.2669233763371979</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3104185802442679</v>
+        <v>0.3112849961023397</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>147598</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>126471</v>
+        <v>127678</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>166650</v>
+        <v>168232</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2559840397251699</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2193434668253403</v>
+        <v>0.2214365437248395</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2890266051213159</v>
+        <v>0.2917712244234448</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>296</v>
@@ -904,19 +904,19 @@
         <v>185108</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>164668</v>
+        <v>165464</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>205778</v>
+        <v>204418</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2259505838843296</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2010009405211045</v>
+        <v>0.2019728981231927</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2511813867926823</v>
+        <v>0.249521246624104</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>450</v>
@@ -925,19 +925,19 @@
         <v>332706</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>306097</v>
+        <v>305393</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>361110</v>
+        <v>362323</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.238356810719425</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2192940552614134</v>
+        <v>0.2187897224144035</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2587061659400553</v>
+        <v>0.2595749331682035</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>33565</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>23946</v>
+        <v>23619</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>46312</v>
+        <v>46132</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.05821318930258544</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.04153073567555391</v>
+        <v>0.04096406988749361</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0803209554199472</v>
+        <v>0.08000873462356987</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>50</v>
@@ -975,19 +975,19 @@
         <v>36151</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>26064</v>
+        <v>26829</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>47906</v>
+        <v>49054</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.04412753721446645</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.03181429111353119</v>
+        <v>0.03274802360309157</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0584763030751651</v>
+        <v>0.05987763274958476</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>86</v>
@@ -996,19 +996,19 @@
         <v>69716</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>56183</v>
+        <v>54864</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>88060</v>
+        <v>86733</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.04994604161341112</v>
+        <v>0.04994604161341113</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04025047213075008</v>
+        <v>0.03930543179159267</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06308773602998463</v>
+        <v>0.06213744578246119</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>19322</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>11554</v>
+        <v>12910</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>28680</v>
+        <v>29664</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03351159054937097</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02003854794790296</v>
+        <v>0.02238958405688767</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04974129794782766</v>
+        <v>0.0514473774624089</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>9</v>
@@ -1046,19 +1046,19 @@
         <v>5796</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>2650</v>
+        <v>2785</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>10812</v>
+        <v>10824</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.007074326244616757</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.00323418035034308</v>
+        <v>0.003399762575900332</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.01319746386535357</v>
+        <v>0.01321271695181895</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>30</v>
@@ -1067,19 +1067,19 @@
         <v>25118</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>17169</v>
+        <v>17587</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>34856</v>
+        <v>37541</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01799503745421881</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01230046578874316</v>
+        <v>0.0125998472002622</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.02497128729993166</v>
+        <v>0.02689538333244791</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>493878</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>451684</v>
+        <v>449298</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>537034</v>
+        <v>538486</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2215712150941039</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2026413646064457</v>
+        <v>0.2015712023799777</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2409325628787161</v>
+        <v>0.2415840169161371</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>747</v>
@@ -1192,19 +1192,19 @@
         <v>513830</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>477451</v>
+        <v>479604</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>550852</v>
+        <v>549079</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2374184274836075</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2206092678980096</v>
+        <v>0.221604239508804</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2545247830740068</v>
+        <v>0.2537056122486603</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1237</v>
@@ -1213,19 +1213,19 @@
         <v>1007708</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>957495</v>
+        <v>949533</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1067446</v>
+        <v>1061700</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2293780498844651</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2179484626424327</v>
+        <v>0.2161360492695207</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2429758487804139</v>
+        <v>0.2416679560788779</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>684953</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>636754</v>
+        <v>635411</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>736225</v>
+        <v>737812</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.3072942173887082</v>
+        <v>0.307294217388708</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2856705905850172</v>
+        <v>0.2850678875146527</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3302967880609792</v>
+        <v>0.3310090184108251</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1128</v>
@@ -1263,19 +1263,19 @@
         <v>802020</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>762593</v>
+        <v>764425</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>845858</v>
+        <v>845292</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.3705784129783551</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.3523612616443681</v>
+        <v>0.3532074946173698</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.390834289725707</v>
+        <v>0.3905726430262369</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1785</v>
@@ -1284,19 +1284,19 @@
         <v>1486972</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1423764</v>
+        <v>1420404</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1552089</v>
+        <v>1554649</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.3384700007167915</v>
+        <v>0.3384700007167913</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.3240823493925142</v>
+        <v>0.3233175735689315</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.3532922182078933</v>
+        <v>0.3538748522388292</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>808432</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>757162</v>
+        <v>751310</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>863920</v>
+        <v>860560</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.3626912514323354</v>
+        <v>0.3626912514323353</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3396900918732733</v>
+        <v>0.3370643230725165</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3875853342454254</v>
+        <v>0.3860779957430691</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>861</v>
@@ -1334,19 +1334,19 @@
         <v>689918</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>651625</v>
+        <v>647874</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>735823</v>
+        <v>734511</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.3187813824831311</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3010875967227102</v>
+        <v>0.2993543104469181</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3399917067807995</v>
+        <v>0.3393856482688116</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1528</v>
@@ -1355,19 +1355,19 @@
         <v>1498350</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1432936</v>
+        <v>1433903</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1566536</v>
+        <v>1561005</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3410598702072121</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.326170072829804</v>
+        <v>0.3263903023580804</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3565806936536193</v>
+        <v>0.3553215450222174</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>179692</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>145188</v>
+        <v>151334</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>212681</v>
+        <v>219152</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.08061641093114706</v>
+        <v>0.08061641093114703</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.06513633334852412</v>
+        <v>0.06789389156022868</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.09541623826711021</v>
+        <v>0.09831925620055103</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>133</v>
@@ -1405,19 +1405,19 @@
         <v>117898</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>99361</v>
+        <v>99147</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>143796</v>
+        <v>141154</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05447550106859401</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.0459104924095933</v>
+        <v>0.0458116579751837</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.06644203948623877</v>
+        <v>0.06522100718654573</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>266</v>
@@ -1426,19 +1426,19 @@
         <v>297590</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>257710</v>
+        <v>259438</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>337140</v>
+        <v>339721</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06773857730648718</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05866089656985875</v>
+        <v>0.05905412256087219</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07674111384267028</v>
+        <v>0.07732860353816498</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>62026</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44206</v>
+        <v>44356</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>82879</v>
+        <v>83229</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02782690515370551</v>
+        <v>0.0278269051537055</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01983229215538494</v>
+        <v>0.0198995560957651</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03718236219014623</v>
+        <v>0.03733934841429825</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>44</v>
@@ -1476,19 +1476,19 @@
         <v>40571</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>28134</v>
+        <v>28946</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>55721</v>
+        <v>55465</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0187462759863123</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01299945015262715</v>
+        <v>0.01337483592648916</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02574627664738716</v>
+        <v>0.02562818224167953</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>88</v>
@@ -1497,19 +1497,19 @@
         <v>102597</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>81496</v>
+        <v>80430</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>128239</v>
+        <v>126491</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.02335350188504428</v>
+        <v>0.02335350188504427</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.01855039725248595</v>
+        <v>0.01830769343209356</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.02919027997378132</v>
+        <v>0.02879240072658152</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>218381</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>191052</v>
+        <v>193918</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>242805</v>
+        <v>244078</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3072583163304156</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2688071048170211</v>
+        <v>0.2728383302328053</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3416224614143563</v>
+        <v>0.3434134273776909</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>315</v>
@@ -1622,19 +1622,19 @@
         <v>216282</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>194568</v>
+        <v>194676</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>238629</v>
+        <v>237152</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2943099672023491</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2647633349782209</v>
+        <v>0.2649092234649605</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3247190335983786</v>
+        <v>0.3227099405543994</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>533</v>
@@ -1643,19 +1643,19 @@
         <v>434663</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>403280</v>
+        <v>397501</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>470431</v>
+        <v>468630</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3006760515000759</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2789671128685174</v>
+        <v>0.2749692551807719</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3254182397646739</v>
+        <v>0.3241723220670455</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>263278</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>238396</v>
+        <v>234530</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>291570</v>
+        <v>290596</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3704266975483283</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3354190929781597</v>
+        <v>0.3299797594194882</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4102326982475121</v>
+        <v>0.4088631363284027</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>421</v>
@@ -1693,19 +1693,19 @@
         <v>303017</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>277522</v>
+        <v>282078</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>326995</v>
+        <v>327338</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.4123373906632193</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.3776442611867508</v>
+        <v>0.3838431493427424</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.4449654008488451</v>
+        <v>0.4454318968146164</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>683</v>
@@ -1714,19 +1714,19 @@
         <v>566295</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>532159</v>
+        <v>527918</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>606197</v>
+        <v>607829</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.391731906310992</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.3681185086992602</v>
+        <v>0.3651848620072309</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.4193338478602697</v>
+        <v>0.4204631069147832</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>191774</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>166462</v>
+        <v>166937</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>218192</v>
+        <v>217609</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.2698226324798119</v>
+        <v>0.2698226324798118</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2342085836119107</v>
+        <v>0.234876790569015</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.306991216104765</v>
+        <v>0.3061711929825465</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>234</v>
@@ -1764,19 +1764,19 @@
         <v>186707</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>164406</v>
+        <v>166263</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>211041</v>
+        <v>208170</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.25406597993624</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2237188453441529</v>
+        <v>0.2262459193389931</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2871781835720674</v>
+        <v>0.2832713937771243</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>402</v>
@@ -1785,19 +1785,19 @@
         <v>378482</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>341911</v>
+        <v>345078</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>411226</v>
+        <v>412554</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.261812772778344</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2365154849618121</v>
+        <v>0.2387061054446367</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2844634578099441</v>
+        <v>0.2853821696810495</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>30620</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>20843</v>
+        <v>20357</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>44644</v>
+        <v>44208</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04308138151531102</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.02932595600802739</v>
+        <v>0.0286415085249645</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.06281346066468098</v>
+        <v>0.06220016216704958</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>28</v>
@@ -1835,19 +1835,19 @@
         <v>24320</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>16440</v>
+        <v>15860</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>35497</v>
+        <v>34595</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.03309428382169421</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02237070068051078</v>
+        <v>0.02158194611461754</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.04830318762483499</v>
+        <v>0.04707593115049907</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>54</v>
@@ -1856,19 +1856,19 @@
         <v>54940</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>41008</v>
+        <v>41794</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>72441</v>
+        <v>71296</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.03800446234548651</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02836721040480044</v>
+        <v>0.02891085014249237</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.05011045169232896</v>
+        <v>0.0493188552775167</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>6689</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2375</v>
+        <v>2342</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>14092</v>
+        <v>13914</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.009410972126133193</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.003341797147609236</v>
+        <v>0.003295213440673041</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.01982730914496148</v>
+        <v>0.01957667458800293</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>6</v>
@@ -1906,19 +1906,19 @@
         <v>4551</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1936</v>
+        <v>1944</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>10507</v>
+        <v>10035</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.006192378376497209</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.002634973824827642</v>
+        <v>0.002645470038567381</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01429715821315065</v>
+        <v>0.01365534371777559</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>12</v>
@@ -1927,19 +1927,19 @@
         <v>11239</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>5870</v>
+        <v>6501</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>19904</v>
+        <v>18548</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.007774807065101674</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.004060694117870075</v>
+        <v>0.00449722094465432</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.01376816610358507</v>
+        <v>0.01283078431343856</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>909925</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>856965</v>
+        <v>854947</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>973326</v>
+        <v>963533</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2587726820490486</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2437113158428203</v>
+        <v>0.2431374108249535</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2768029902745248</v>
+        <v>0.2740181235478603</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1739</v>
@@ -2052,19 +2052,19 @@
         <v>1097863</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1053627</v>
+        <v>1053308</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1143035</v>
+        <v>1146174</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2952550318785596</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2833582690958292</v>
+        <v>0.2832725465515026</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3074034061762461</v>
+        <v>0.3082474961010294</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2727</v>
@@ -2073,19 +2073,19 @@
         <v>2007789</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1933893</v>
+        <v>1933520</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2080921</v>
+        <v>2079777</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2775232783332928</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2673091538421291</v>
+        <v>0.2672576854645413</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2876319208849843</v>
+        <v>0.287473764280241</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>1126669</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1057063</v>
+        <v>1058748</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1182593</v>
+        <v>1184831</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3204120504772197</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.300616825044515</v>
+        <v>0.3010961394282259</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3363164180605087</v>
+        <v>0.3369527337365029</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1938</v>
@@ -2123,19 +2123,19 @@
         <v>1329471</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1274419</v>
+        <v>1279723</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1383735</v>
+        <v>1379550</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3575429153406383</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3427372676993053</v>
+        <v>0.3441636198379618</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3721363238283186</v>
+        <v>0.3710107550806518</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3054</v>
@@ -2144,19 +2144,19 @@
         <v>2456140</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2377228</v>
+        <v>2379570</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2534908</v>
+        <v>2536722</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3394959598194738</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3285884786406567</v>
+        <v>0.3289121530209866</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3503834446282142</v>
+        <v>0.3506342479474397</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>1147804</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1088217</v>
+        <v>1092141</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1214421</v>
+        <v>1216099</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.3264225898379083</v>
+        <v>0.3264225898379082</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3094768213979581</v>
+        <v>0.3105926639102565</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3453678550601395</v>
+        <v>0.3458450333395169</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1391</v>
@@ -2194,19 +2194,19 @@
         <v>1061734</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1004556</v>
+        <v>1013416</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1114691</v>
+        <v>1114280</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2855385477423902</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2701613577351146</v>
+        <v>0.2725440702684824</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2997808118044824</v>
+        <v>0.2996700212371779</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>2380</v>
@@ -2215,19 +2215,19 @@
         <v>2209537</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>2123372</v>
+        <v>2132381</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2285942</v>
+        <v>2294934</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.3054096843813361</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2934996724431672</v>
+        <v>0.2947448944973842</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3159706490612882</v>
+        <v>0.3172134631181953</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>243877</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>210629</v>
+        <v>208938</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>284374</v>
+        <v>281907</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.06935597975533028</v>
+        <v>0.06935597975533027</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.05990041739663385</v>
+        <v>0.05941970328268902</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.0808729165087968</v>
+        <v>0.08017123705691209</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>211</v>
@@ -2265,19 +2265,19 @@
         <v>178369</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>155450</v>
+        <v>153371</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>208439</v>
+        <v>204910</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.04796992367993447</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.04180621193818525</v>
+        <v>0.04124701881099744</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.05605678968812926</v>
+        <v>0.05510758481168793</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>406</v>
@@ -2286,19 +2286,19 @@
         <v>422246</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>379764</v>
+        <v>382254</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>469207</v>
+        <v>468338</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05836432747810828</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05249222336509105</v>
+        <v>0.05283636423230596</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06485543469593946</v>
+        <v>0.06473530861883404</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>88037</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>66837</v>
+        <v>69407</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>111455</v>
+        <v>110562</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02503669788049324</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01900777293622975</v>
+        <v>0.01973867906575058</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03169646434942913</v>
+        <v>0.03144257589358218</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>59</v>
@@ -2336,19 +2336,19 @@
         <v>50918</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>37665</v>
+        <v>38932</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>67282</v>
+        <v>68249</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.0136935813584775</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01012943749796262</v>
+        <v>0.01047032726607713</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.01809444268792064</v>
+        <v>0.01835470290952309</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>130</v>
@@ -2357,19 +2357,19 @@
         <v>138954</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>112284</v>
+        <v>116015</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>165392</v>
+        <v>168226</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01920674998778899</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.01552031140387437</v>
+        <v>0.01603594548844321</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.0228610152784017</v>
+        <v>0.02325281600259323</v>
       </c>
     </row>
     <row r="27">
